--- a/models_db.xlsx
+++ b/models_db.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reid\Google Drive\Research\Computational Oncology\Ernesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reid\Google Drive\Research\Computational Oncology\Ernesto\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065C6E8-A6C0-466D-9AB6-64F97AAA8F8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C00B6A5-F5FC-4E9F-953F-9A598F5ABA09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="2976" windowWidth="17280" windowHeight="12204" xr2:uid="{E4C10ED8-B5E9-484F-86DF-0887FFC212DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{E4C10ED8-B5E9-484F-86DF-0887FFC212DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vascular_Endothelial_Angio" sheetId="1" r:id="rId1"/>
+    <sheet name="Nonvascular" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Title</t>
   </si>
@@ -91,9 +92,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Tumor Volume, carrying capacity, radiotherapy, angiogenesis</t>
-  </si>
-  <si>
     <t>generic</t>
   </si>
   <si>
@@ -101,30 +99,11 @@
 growth model is investigated."</t>
   </si>
   <si>
-    <t>Garrido, Breitenbach, Chudej, Borzì</t>
-  </si>
-  <si>
-    <t>Explicit approximation of stochastic optimal feedback control
-for combined therapy of cancer</t>
-  </si>
-  <si>
-    <t>Alamir</t>
-  </si>
-  <si>
-    <t>Univ. Grenoble Alpes, CNRS, Grenoble INP, GIPSA-lab, 38000 Grenoble, France</t>
-  </si>
-  <si>
-    <t>Philip Hahnfeldt, Dipak Panigrahy, Judah Folkman, and Lynn Hlatky2</t>
-  </si>
-  <si>
     <t>Tumor Development under Angiogenic Signaling: A Dynamical Theory of Tumor
 Growth, Treatment Response, and Postvascular Dormancy1</t>
   </si>
   <si>
     <t>Research Trace</t>
-  </si>
-  <si>
-    <t>Department of Adult Oncology, Dana-Farber Cancer Institute and Joint Center for Radiation Therapy [P. H., L. H.], and Division of Pediatric Surgery, Children’s Hospital [D. P., J. F.], Harvard Medical School, Boston, Massachusetts 02115</t>
   </si>
   <si>
     <t>"The effects of the angiogenic inhibitors endostatin, angiostatin, and
@@ -156,9 +135,6 @@
     <t>Trastuzumab improves tumor perfusion and vascular delivery of cytotoxic therapy in a murine model of HER2+ breast cancer: preliminary results</t>
   </si>
   <si>
-    <t>Anna G. Sorace1,2 • C. Chad Quarles3 • Jennifer G. Whisenant1,2 • Ariella B. Hanker4 • J. Oliver McIntyre1,2,4 • Violeta M. Sanchez6 • Thomas E. Yankeelov1,2,4,5,7,8</t>
-  </si>
-  <si>
     <t>ktrans, vessel proliferation, vessel density, pericyte coverage, VEGF</t>
   </si>
   <si>
@@ -193,6 +169,71 @@
   </si>
   <si>
     <t>Riah</t>
+  </si>
+  <si>
+    <t>First Author</t>
+  </si>
+  <si>
+    <t>Sorace</t>
+  </si>
+  <si>
+    <t>Garrido</t>
+  </si>
+  <si>
+    <t>trastuzumab increases vascular delivery to BT474 tumors. Additionally, trastuzumab dosing prior to chemotherapy (doxorubicin) synergistically improved the overall effectiveness of the therapies.</t>
+  </si>
+  <si>
+    <t>0.1 - 0.4 m in^-1</t>
+  </si>
+  <si>
+    <t>HER2+ breast cancer</t>
+  </si>
+  <si>
+    <t>Notes for application</t>
+  </si>
+  <si>
+    <t>has data, has no ODEs</t>
+  </si>
+  <si>
+    <t>Tumor Volume, carrying capacity, radiotherapy, anti-angiogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hahnfeldt</t>
+  </si>
+  <si>
+    <t>cited by Garrido</t>
+  </si>
+  <si>
+    <t>Optimal Scheduling of Radiotherapy and Angiogenic Inhibitors</t>
+  </si>
+  <si>
+    <t>Ergun</t>
+  </si>
+  <si>
+    <t>need to simplify and remove radiotherapy component. Consider tras as only operating on carrying capacity.
+Claims that the hanfeldt and Ergun equations have good experimental data to back them up. Abstract on Skehan paper (review of cancer databases) shows gompertzian does not perform well for tumors. From Skehan abstract: "The Spillman and inverse Nth root equations provided the greatest number of best-fits. The Gompertz equation was a good growth model for normal tissues, but mediocre for tumors."
+Upon looking for this article, it appears there is no copy online</t>
+  </si>
+  <si>
+    <t>skehan</t>
+  </si>
+  <si>
+    <t>sachs</t>
+  </si>
+  <si>
+    <t>spratt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+V' = -(lambda_1)*Vlog(V/K), K' = f(K,V,t)
+For V size and K carrying capacity
+f (K, V, t) = (-lambda_2)K + bS(V,K) -dI(V,K) - eKg(t)
+for S self stimulation, I self inhibition of vasculature, g chemoconcentration
+Final form: f (K, V, t) = (-lambda_2)K + bV -dKV^2/3 - eKg(t)
+g(t) = int(0,t){c(s)exp(-clr(t-s)}ds
+The carrying capacity K is defined as the effective vascular support provided to the tumor as reflected by the size of the tumor potentially sustainable by it
+Demonstrated set point of tumor w/r/t balance of external and internal inhibition of vasculature. Posits that the natural set point of the tumor is beyond tenable for host. Endostatin and angiostatin have linearly additive effects and potentially different mechanisms. 
+</t>
   </si>
 </sst>
 </file>
@@ -228,13 +269,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,258 +588,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FBE8A6-0BF7-408D-9B86-448D4CB96E9B}">
-  <dimension ref="B3:S13"/>
+  <dimension ref="A3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="65" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="63" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="56.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
         <v>2018</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1999</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1999</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="115.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="100.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1">
         <v>2011</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2018</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5500DED-3982-4026-9A3C-FE8C31AD9FAE}">
+  <dimension ref="B5:S8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/models_db.xlsx
+++ b/models_db.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reid\Google Drive\Research\Computational Oncology\Ernesto\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C00B6A5-F5FC-4E9F-953F-9A598F5ABA09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59878463-BA1A-4043-9BF3-8444C81EFE95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{E4C10ED8-B5E9-484F-86DF-0887FFC212DB}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="8640" windowHeight="12204" activeTab="2" xr2:uid="{E4C10ED8-B5E9-484F-86DF-0887FFC212DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Vascular_Endothelial_Angio" sheetId="1" r:id="rId1"/>
     <sheet name="Nonvascular" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Title</t>
   </si>
@@ -234,6 +235,24 @@
 The carrying capacity K is defined as the effective vascular support provided to the tumor as reflected by the size of the tumor potentially sustainable by it
 Demonstrated set point of tumor w/r/t balance of external and internal inhibition of vasculature. Posits that the natural set point of the tumor is beyond tenable for host. Endostatin and angiostatin have linearly additive effects and potentially different mechanisms. 
 </t>
+  </si>
+  <si>
+    <t>radiotherapy, antiangiogenic treatment</t>
+  </si>
+  <si>
+    <t>send ernesto the reference for the skehan book</t>
+  </si>
+  <si>
+    <t>consider 2nd derivative on the trastuzumab</t>
+  </si>
+  <si>
+    <t>consider the other equations in skehan, the skillman and nth root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consider rederivation of the concentration of the drug spatially, hanfeldt says its with radius, could be a different distribution </t>
+  </si>
+  <si>
+    <t>ernesto will see if he can find the paper</t>
   </si>
 </sst>
 </file>
@@ -590,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FBE8A6-0BF7-408D-9B86-448D4CB96E9B}">
   <dimension ref="A3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A5" zoomScale="63" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,6 +830,9 @@
       <c r="E7" s="1">
         <v>2003</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
@@ -946,4 +968,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D26DEA-AB43-476A-94AB-18C7BB57594A}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="104.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>